--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_workspace\SeleniumFramework\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E7BD12B-B631-4A0D-A35C-695A42CAE55B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D08E50-E928-4C5E-8DEF-3C64362C6099}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E8E6FAA1-98CE-418B-976A-1D37537D0B33}"/>
   </bookViews>
@@ -31,12 +31,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>date</t>
   </si>
   <si>
     <t>Return</t>
+  </si>
+  <si>
+    <t>return</t>
   </si>
 </sst>
 </file>
@@ -391,14 +394,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7276BAB1-669D-4294-ACC1-A2D21ABD0791}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -410,16 +410,15 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <f ca="1">TODAY()+5</f>
-        <v>44021</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
       </c>
-      <c r="B2" s="1">
-        <f ca="1">TODAY()+10</f>
-        <v>44026</v>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>